--- a/medicine/Psychotrope/Œnochoés_de_Basse-Yutz/Œnochoés_de_Basse-Yutz.xlsx
+++ b/medicine/Psychotrope/Œnochoés_de_Basse-Yutz/Œnochoés_de_Basse-Yutz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92nocho%C3%A9s_de_Basse-Yutz</t>
+          <t>Œnochoés_de_Basse-Yutz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les œnochoés de Basse-Yutz sont une paire de vases à servir le vin, datant de l'âge du fer, et trouvés dans les années 1920 sur la commune de Yutz. Ils sont actuellement conservés au British Museum[1], et sont des œuvres majeures de l'art celte. A ce titre, ils ont été inclus dans une histoire du monde en cent objets, diffusée en 2010 par la B.B.C.
+Les œnochoés de Basse-Yutz sont une paire de vases à servir le vin, datant de l'âge du fer, et trouvés dans les années 1920 sur la commune de Yutz. Ils sont actuellement conservés au British Museum, et sont des œuvres majeures de l'art celte. A ce titre, ils ont été inclus dans une histoire du monde en cent objets, diffusée en 2010 par la B.B.C.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92nocho%C3%A9s_de_Basse-Yutz</t>
+          <t>Œnochoés_de_Basse-Yutz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trouvés à Yutz dans les années 1920, lors de travaux du chemin de fer, mais sans qu'il y eut fouille de ce qui devait être une tombe princière celte. Deux stamnos ont été trouvés en même temps[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trouvés à Yutz dans les années 1920, lors de travaux du chemin de fer, mais sans qu'il y eut fouille de ce qui devait être une tombe princière celte. Deux stamnos ont été trouvés en même temps.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92nocho%C3%A9s_de_Basse-Yutz</t>
+          <t>Œnochoés_de_Basse-Yutz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabriqués en tôle de cuivre martelé et riveté, ils sont de type Schnabelkanne, et ils sont proches d'aspect mais différents dans la réalité.
 La base de l'une des anses porte une représentation de tête humaine, les anses et les couvercles ont des animaux fantastiques. 
